--- a/data/output/FV2410_FV2404/UTILMD/55014.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55014.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20705" uniqueCount="1235">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20726" uniqueCount="1235">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3959,6 +3959,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U896" totalsRowShown="0">
+  <autoFilter ref="A1:U896"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4248,7 +4278,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U896"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -48041,5 +48074,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55014.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55014.xlsx
@@ -6568,7 +6568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6597,8 +6597,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7041,7 +7047,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -7403,7 +7409,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -7549,7 +7555,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -7751,7 +7757,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -8059,7 +8065,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -8259,7 +8265,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -8633,7 +8639,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -8941,7 +8947,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -9141,7 +9147,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -9359,7 +9365,7 @@
         <v>1123</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -9579,7 +9585,7 @@
         <v>1124</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -9799,7 +9805,7 @@
         <v>1125</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -10019,7 +10025,7 @@
         <v>1126</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -10621,7 +10627,7 @@
         <v>1128</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -10841,7 +10847,7 @@
         <v>1129</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -11061,7 +11067,7 @@
         <v>1130</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -11219,7 +11225,7 @@
         <v>1131</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -11423,7 +11429,7 @@
         <v>1126</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -11627,7 +11633,7 @@
         <v>1134</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -11831,7 +11837,7 @@
         <v>1136</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -12035,7 +12041,7 @@
         <v>1138</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -12237,7 +12243,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -12433,7 +12439,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -12629,7 +12635,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -12839,7 +12845,7 @@
         <v>1141</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -13111,7 +13117,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -13383,7 +13389,7 @@
         <v>1142</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -13601,7 +13607,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -13815,7 +13821,7 @@
         <v>1143</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -14235,7 +14241,7 @@
         <v>1146</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -14383,7 +14389,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -14709,7 +14715,7 @@
         <v>1148</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -14971,7 +14977,7 @@
         <v>1149</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -15191,7 +15197,7 @@
         <v>1151</v>
       </c>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -15353,7 +15359,7 @@
         <v>1152</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -15501,7 +15507,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -15659,7 +15665,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -15913,7 +15919,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -16059,7 +16065,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -16381,7 +16387,7 @@
         <v>1153</v>
       </c>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -16529,7 +16535,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -16691,7 +16697,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -16903,7 +16909,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -17049,7 +17055,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -17205,7 +17211,7 @@
         <v>1153</v>
       </c>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -17353,7 +17359,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -17515,7 +17521,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -17733,7 +17739,7 @@
         <v>1155</v>
       </c>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -17931,7 +17937,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -18285,7 +18291,7 @@
       </c>
       <c r="K217" s="2"/>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -18429,7 +18435,7 @@
         <v>1126</v>
       </c>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -18577,7 +18583,7 @@
       </c>
       <c r="K223" s="2"/>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -18737,7 +18743,7 @@
         <v>1156</v>
       </c>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -19111,7 +19117,7 @@
         <v>1159</v>
       </c>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -19371,7 +19377,7 @@
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -19571,7 +19577,7 @@
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -19717,7 +19723,7 @@
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -19877,7 +19883,7 @@
         <v>1161</v>
       </c>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -20311,7 +20317,7 @@
       </c>
       <c r="K256" s="2"/>
       <c r="L256" s="4"/>
-      <c r="M256" s="2" t="s">
+      <c r="M256" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N256" s="2" t="s">
@@ -20509,7 +20515,7 @@
         <v>1162</v>
       </c>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -20707,7 +20713,7 @@
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="4"/>
-      <c r="M264" s="2" t="s">
+      <c r="M264" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N264" s="2" t="s">
@@ -20905,7 +20911,7 @@
         <v>1163</v>
       </c>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -21213,7 +21219,7 @@
         <v>1164</v>
       </c>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -21515,7 +21521,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -21929,7 +21935,7 @@
         <v>1165</v>
       </c>
       <c r="L288" s="4"/>
-      <c r="M288" s="2" t="s">
+      <c r="M288" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N288" s="2" t="s">
@@ -22143,7 +22149,7 @@
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N292" s="2" t="s">
@@ -22497,7 +22503,7 @@
       </c>
       <c r="K299" s="2"/>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N299" s="2" t="s">
@@ -22751,7 +22757,7 @@
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -22953,7 +22959,7 @@
         <v>1167</v>
       </c>
       <c r="L308" s="4"/>
-      <c r="M308" s="2" t="s">
+      <c r="M308" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N308" s="2" t="s">
@@ -23111,7 +23117,7 @@
         <v>1168</v>
       </c>
       <c r="L311" s="4"/>
-      <c r="M311" s="2" t="s">
+      <c r="M311" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N311" s="2" t="s">
@@ -23419,7 +23425,7 @@
         <v>1169</v>
       </c>
       <c r="L317" s="4"/>
-      <c r="M317" s="2" t="s">
+      <c r="M317" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N317" s="2" t="s">
@@ -23683,7 +23689,7 @@
       </c>
       <c r="K322" s="2"/>
       <c r="L322" s="4"/>
-      <c r="M322" s="2" t="s">
+      <c r="M322" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N322" s="2" t="s">
@@ -23879,7 +23885,7 @@
       </c>
       <c r="K326" s="2"/>
       <c r="L326" s="4"/>
-      <c r="M326" s="2" t="s">
+      <c r="M326" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N326" s="2" t="s">
@@ -24025,7 +24031,7 @@
       </c>
       <c r="K329" s="2"/>
       <c r="L329" s="4"/>
-      <c r="M329" s="2" t="s">
+      <c r="M329" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N329" s="2" t="s">
@@ -24241,7 +24247,7 @@
       </c>
       <c r="K333" s="2"/>
       <c r="L333" s="4"/>
-      <c r="M333" s="2" t="s">
+      <c r="M333" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N333" s="2" t="s">
@@ -24461,7 +24467,7 @@
       </c>
       <c r="K337" s="2"/>
       <c r="L337" s="4"/>
-      <c r="M337" s="2" t="s">
+      <c r="M337" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N337" s="2" t="s">
@@ -24677,7 +24683,7 @@
       </c>
       <c r="K341" s="2"/>
       <c r="L341" s="4"/>
-      <c r="M341" s="2" t="s">
+      <c r="M341" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N341" s="2" t="s">
@@ -24889,7 +24895,7 @@
       </c>
       <c r="K345" s="2"/>
       <c r="L345" s="4"/>
-      <c r="M345" s="2" t="s">
+      <c r="M345" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N345" s="2" t="s">
@@ -25197,7 +25203,7 @@
       </c>
       <c r="K351" s="2"/>
       <c r="L351" s="4"/>
-      <c r="M351" s="2" t="s">
+      <c r="M351" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N351" s="2" t="s">
@@ -25399,7 +25405,7 @@
         <v>1171</v>
       </c>
       <c r="L355" s="4"/>
-      <c r="M355" s="2" t="s">
+      <c r="M355" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N355" s="2" t="s">
@@ -25547,7 +25553,7 @@
       </c>
       <c r="K358" s="2"/>
       <c r="L358" s="4"/>
-      <c r="M358" s="2" t="s">
+      <c r="M358" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N358" s="2" t="s">
@@ -25823,7 +25829,7 @@
         <v>1174</v>
       </c>
       <c r="L363" s="4"/>
-      <c r="M363" s="2" t="s">
+      <c r="M363" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N363" s="2" t="s">
@@ -26083,7 +26089,7 @@
       </c>
       <c r="K368" s="2"/>
       <c r="L368" s="4"/>
-      <c r="M368" s="2" t="s">
+      <c r="M368" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N368" s="2" t="s">
@@ -26341,7 +26347,7 @@
       </c>
       <c r="K373" s="2"/>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -26709,7 +26715,7 @@
         <v>1178</v>
       </c>
       <c r="L380" s="4"/>
-      <c r="M380" s="2" t="s">
+      <c r="M380" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N380" s="2" t="s">
@@ -26909,7 +26915,7 @@
         <v>1178</v>
       </c>
       <c r="L384" s="4"/>
-      <c r="M384" s="2" t="s">
+      <c r="M384" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N384" s="2" t="s">
@@ -27171,7 +27177,7 @@
         <v>1180</v>
       </c>
       <c r="L389" s="4"/>
-      <c r="M389" s="2" t="s">
+      <c r="M389" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N389" s="2" t="s">
@@ -27371,7 +27377,7 @@
         <v>1180</v>
       </c>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -27569,7 +27575,7 @@
       </c>
       <c r="K397" s="2"/>
       <c r="L397" s="4"/>
-      <c r="M397" s="2" t="s">
+      <c r="M397" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N397" s="2" t="s">
@@ -27715,7 +27721,7 @@
       </c>
       <c r="K400" s="2"/>
       <c r="L400" s="4"/>
-      <c r="M400" s="2" t="s">
+      <c r="M400" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N400" s="2" t="s">
@@ -27877,7 +27883,7 @@
       </c>
       <c r="K403" s="2"/>
       <c r="L403" s="4"/>
-      <c r="M403" s="2" t="s">
+      <c r="M403" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N403" s="2" t="s">
@@ -28095,7 +28101,7 @@
         <v>1182</v>
       </c>
       <c r="L407" s="4"/>
-      <c r="M407" s="2" t="s">
+      <c r="M407" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N407" s="2" t="s">
@@ -28507,7 +28513,7 @@
         <v>1183</v>
       </c>
       <c r="L415" s="4"/>
-      <c r="M415" s="2" t="s">
+      <c r="M415" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N415" s="2" t="s">
@@ -28707,7 +28713,7 @@
         <v>1184</v>
       </c>
       <c r="L419" s="4"/>
-      <c r="M419" s="2" t="s">
+      <c r="M419" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N419" s="2" t="s">
@@ -28905,7 +28911,7 @@
       </c>
       <c r="K423" s="2"/>
       <c r="L423" s="4"/>
-      <c r="M423" s="2" t="s">
+      <c r="M423" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N423" s="2" t="s">
@@ -29051,7 +29057,7 @@
       </c>
       <c r="K426" s="2"/>
       <c r="L426" s="4"/>
-      <c r="M426" s="2" t="s">
+      <c r="M426" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N426" s="2" t="s">
@@ -29369,7 +29375,7 @@
         <v>1165</v>
       </c>
       <c r="L432" s="4"/>
-      <c r="M432" s="2" t="s">
+      <c r="M432" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N432" s="2" t="s">
@@ -29517,7 +29523,7 @@
       </c>
       <c r="K435" s="2"/>
       <c r="L435" s="4"/>
-      <c r="M435" s="2" t="s">
+      <c r="M435" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N435" s="2" t="s">
@@ -29679,7 +29685,7 @@
       </c>
       <c r="K438" s="2"/>
       <c r="L438" s="4"/>
-      <c r="M438" s="2" t="s">
+      <c r="M438" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N438" s="2" t="s">
@@ -29891,7 +29897,7 @@
       </c>
       <c r="K442" s="2"/>
       <c r="L442" s="4"/>
-      <c r="M442" s="2" t="s">
+      <c r="M442" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N442" s="2" t="s">
@@ -30087,7 +30093,7 @@
       </c>
       <c r="K446" s="2"/>
       <c r="L446" s="4"/>
-      <c r="M446" s="2" t="s">
+      <c r="M446" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N446" s="2" t="s">
@@ -30231,7 +30237,7 @@
         <v>1185</v>
       </c>
       <c r="L449" s="4"/>
-      <c r="M449" s="2" t="s">
+      <c r="M449" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N449" s="2" t="s">
@@ -30379,7 +30385,7 @@
       </c>
       <c r="K452" s="2"/>
       <c r="L452" s="4"/>
-      <c r="M452" s="2" t="s">
+      <c r="M452" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N452" s="2" t="s">
@@ -30533,7 +30539,7 @@
       </c>
       <c r="K455" s="2"/>
       <c r="L455" s="4"/>
-      <c r="M455" s="2" t="s">
+      <c r="M455" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N455" s="2" t="s">
@@ -30679,7 +30685,7 @@
       </c>
       <c r="K458" s="2"/>
       <c r="L458" s="4"/>
-      <c r="M458" s="2" t="s">
+      <c r="M458" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N458" s="2" t="s">
@@ -30999,7 +31005,7 @@
       </c>
       <c r="K464" s="2"/>
       <c r="L464" s="4"/>
-      <c r="M464" s="2" t="s">
+      <c r="M464" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N464" s="2" t="s">
@@ -31159,7 +31165,7 @@
         <v>1186</v>
       </c>
       <c r="L467" s="4"/>
-      <c r="M467" s="2" t="s">
+      <c r="M467" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N467" s="2" t="s">
@@ -31375,7 +31381,7 @@
         <v>1187</v>
       </c>
       <c r="L471" s="4"/>
-      <c r="M471" s="2" t="s">
+      <c r="M471" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N471" s="2" t="s">
@@ -31587,7 +31593,7 @@
         <v>1188</v>
       </c>
       <c r="L475" s="4"/>
-      <c r="M475" s="2" t="s">
+      <c r="M475" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N475" s="2" t="s">
@@ -31735,7 +31741,7 @@
       </c>
       <c r="K478" s="2"/>
       <c r="L478" s="4"/>
-      <c r="M478" s="2" t="s">
+      <c r="M478" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N478" s="2" t="s">
@@ -31899,7 +31905,7 @@
         <v>1189</v>
       </c>
       <c r="L481" s="4"/>
-      <c r="M481" s="2" t="s">
+      <c r="M481" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N481" s="2" t="s">
@@ -32042,7 +32048,7 @@
       <c r="A484" s="5" t="s">
         <v>1700</v>
       </c>
-      <c r="B484" s="8" t="s">
+      <c r="B484" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C484" s="8" t="s">
@@ -32180,29 +32186,29 @@
       <c r="I487" s="5"/>
       <c r="J487" s="5"/>
       <c r="K487" s="5"/>
-      <c r="L487" s="10" t="s">
+      <c r="L487" s="11" t="s">
         <v>1236</v>
       </c>
-      <c r="M487" s="11" t="s">
+      <c r="M487" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N487" s="11" t="s">
+      <c r="N487" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="O487" s="11" t="s">
+      <c r="O487" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="P487" s="11"/>
-      <c r="Q487" s="11" t="s">
+      <c r="P487" s="13"/>
+      <c r="Q487" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="R487" s="11"/>
-      <c r="S487" s="11"/>
-      <c r="T487" s="11"/>
-      <c r="U487" s="11" t="s">
+      <c r="R487" s="13"/>
+      <c r="S487" s="13"/>
+      <c r="T487" s="13"/>
+      <c r="U487" s="13" t="s">
         <v>1074</v>
       </c>
-      <c r="V487" s="11" t="s">
+      <c r="V487" s="13" t="s">
         <v>1190</v>
       </c>
     </row>
@@ -32220,35 +32226,35 @@
       <c r="I488" s="5"/>
       <c r="J488" s="5"/>
       <c r="K488" s="5"/>
-      <c r="L488" s="10" t="s">
+      <c r="L488" s="11" t="s">
         <v>1236</v>
       </c>
-      <c r="M488" s="11" t="s">
+      <c r="M488" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="N488" s="11" t="s">
+      <c r="N488" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="O488" s="11" t="s">
+      <c r="O488" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="P488" s="11" t="s">
+      <c r="P488" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="Q488" s="11" t="s">
+      <c r="Q488" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="R488" s="11" t="s">
+      <c r="R488" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="S488" s="11"/>
-      <c r="T488" s="11" t="s">
+      <c r="S488" s="13"/>
+      <c r="T488" s="13" t="s">
         <v>767</v>
       </c>
-      <c r="U488" s="11" t="s">
-        <v>988</v>
-      </c>
-      <c r="V488" s="11"/>
+      <c r="U488" s="13" t="s">
+        <v>988</v>
+      </c>
+      <c r="V488" s="13"/>
     </row>
     <row r="489" spans="1:22">
       <c r="A489" s="5" t="s">
@@ -32264,33 +32270,33 @@
       <c r="I489" s="5"/>
       <c r="J489" s="5"/>
       <c r="K489" s="5"/>
-      <c r="L489" s="10" t="s">
+      <c r="L489" s="11" t="s">
         <v>1236</v>
       </c>
-      <c r="M489" s="11" t="s">
+      <c r="M489" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="N489" s="11" t="s">
+      <c r="N489" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="O489" s="11" t="s">
+      <c r="O489" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="P489" s="11" t="s">
+      <c r="P489" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="Q489" s="11" t="s">
+      <c r="Q489" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="R489" s="11"/>
-      <c r="S489" s="11"/>
-      <c r="T489" s="11" t="s">
+      <c r="R489" s="13"/>
+      <c r="S489" s="13"/>
+      <c r="T489" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="U489" s="11" t="s">
+      <c r="U489" s="13" t="s">
         <v>1003</v>
       </c>
-      <c r="V489" s="11" t="s">
+      <c r="V489" s="13" t="s">
         <v>1133</v>
       </c>
     </row>
@@ -32321,7 +32327,7 @@
         <v>1191</v>
       </c>
       <c r="L490" s="4"/>
-      <c r="M490" s="2" t="s">
+      <c r="M490" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N490" s="2" t="s">
@@ -32487,7 +32493,7 @@
         <v>1192</v>
       </c>
       <c r="L493" s="4"/>
-      <c r="M493" s="2" t="s">
+      <c r="M493" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N493" s="2" t="s">
@@ -32649,7 +32655,7 @@
         <v>1193</v>
       </c>
       <c r="L496" s="4"/>
-      <c r="M496" s="2" t="s">
+      <c r="M496" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N496" s="2" t="s">
@@ -32907,7 +32913,7 @@
         <v>1194</v>
       </c>
       <c r="L501" s="4"/>
-      <c r="M501" s="2" t="s">
+      <c r="M501" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N501" s="2" t="s">
@@ -33165,7 +33171,7 @@
         <v>1194</v>
       </c>
       <c r="L506" s="4"/>
-      <c r="M506" s="2" t="s">
+      <c r="M506" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N506" s="2" t="s">
@@ -33421,7 +33427,7 @@
       </c>
       <c r="K511" s="2"/>
       <c r="L511" s="4"/>
-      <c r="M511" s="2" t="s">
+      <c r="M511" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N511" s="2" t="s">
@@ -33623,7 +33629,7 @@
         <v>1195</v>
       </c>
       <c r="L515" s="4"/>
-      <c r="M515" s="2" t="s">
+      <c r="M515" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N515" s="2" t="s">
@@ -33893,7 +33899,7 @@
         <v>1186</v>
       </c>
       <c r="L520" s="4"/>
-      <c r="M520" s="2" t="s">
+      <c r="M520" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N520" s="2" t="s">
@@ -34109,7 +34115,7 @@
         <v>1187</v>
       </c>
       <c r="L524" s="4"/>
-      <c r="M524" s="2" t="s">
+      <c r="M524" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N524" s="2" t="s">
@@ -34325,7 +34331,7 @@
         <v>1194</v>
       </c>
       <c r="L528" s="4"/>
-      <c r="M528" s="2" t="s">
+      <c r="M528" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N528" s="2" t="s">
@@ -34595,7 +34601,7 @@
         <v>1196</v>
       </c>
       <c r="L533" s="4"/>
-      <c r="M533" s="2" t="s">
+      <c r="M533" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N533" s="2" t="s">
@@ -34757,7 +34763,7 @@
         <v>1197</v>
       </c>
       <c r="L536" s="4"/>
-      <c r="M536" s="2" t="s">
+      <c r="M536" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N536" s="2" t="s">
@@ -34919,7 +34925,7 @@
         <v>1198</v>
       </c>
       <c r="L539" s="4"/>
-      <c r="M539" s="2" t="s">
+      <c r="M539" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N539" s="2" t="s">
@@ -35185,7 +35191,7 @@
         <v>1199</v>
       </c>
       <c r="L544" s="4"/>
-      <c r="M544" s="2" t="s">
+      <c r="M544" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N544" s="2" t="s">
@@ -35489,7 +35495,7 @@
         <v>1200</v>
       </c>
       <c r="L550" s="4"/>
-      <c r="M550" s="2" t="s">
+      <c r="M550" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N550" s="2" t="s">
@@ -35637,7 +35643,7 @@
       </c>
       <c r="K553" s="2"/>
       <c r="L553" s="4"/>
-      <c r="M553" s="2" t="s">
+      <c r="M553" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N553" s="2" t="s">
@@ -35795,7 +35801,7 @@
       </c>
       <c r="K556" s="2"/>
       <c r="L556" s="4"/>
-      <c r="M556" s="2" t="s">
+      <c r="M556" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N556" s="2" t="s">
@@ -35941,7 +35947,7 @@
       </c>
       <c r="K559" s="2"/>
       <c r="L559" s="4"/>
-      <c r="M559" s="2" t="s">
+      <c r="M559" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N559" s="2" t="s">
@@ -36153,7 +36159,7 @@
       </c>
       <c r="K563" s="2"/>
       <c r="L563" s="4"/>
-      <c r="M563" s="2" t="s">
+      <c r="M563" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N563" s="2" t="s">
@@ -36299,7 +36305,7 @@
       </c>
       <c r="K566" s="2"/>
       <c r="L566" s="4"/>
-      <c r="M566" s="2" t="s">
+      <c r="M566" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N566" s="2" t="s">
@@ -36621,7 +36627,7 @@
         <v>1201</v>
       </c>
       <c r="L572" s="4"/>
-      <c r="M572" s="2" t="s">
+      <c r="M572" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N572" s="2" t="s">
@@ -36769,7 +36775,7 @@
       </c>
       <c r="K575" s="2"/>
       <c r="L575" s="4"/>
-      <c r="M575" s="2" t="s">
+      <c r="M575" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N575" s="2" t="s">
@@ -36931,7 +36937,7 @@
       </c>
       <c r="K578" s="2"/>
       <c r="L578" s="4"/>
-      <c r="M578" s="2" t="s">
+      <c r="M578" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N578" s="2" t="s">
@@ -37143,7 +37149,7 @@
       </c>
       <c r="K582" s="2"/>
       <c r="L582" s="4"/>
-      <c r="M582" s="2" t="s">
+      <c r="M582" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N582" s="2" t="s">
@@ -37393,7 +37399,7 @@
       </c>
       <c r="K587" s="2"/>
       <c r="L587" s="4"/>
-      <c r="M587" s="2" t="s">
+      <c r="M587" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N587" s="2" t="s">
@@ -37747,7 +37753,7 @@
       </c>
       <c r="K594" s="2"/>
       <c r="L594" s="4"/>
-      <c r="M594" s="2" t="s">
+      <c r="M594" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N594" s="2" t="s">
@@ -37891,7 +37897,7 @@
         <v>1202</v>
       </c>
       <c r="L597" s="4"/>
-      <c r="M597" s="2" t="s">
+      <c r="M597" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N597" s="2" t="s">
@@ -38039,7 +38045,7 @@
       </c>
       <c r="K600" s="2"/>
       <c r="L600" s="4"/>
-      <c r="M600" s="2" t="s">
+      <c r="M600" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N600" s="2" t="s">
@@ -38203,7 +38209,7 @@
         <v>1203</v>
       </c>
       <c r="L603" s="4"/>
-      <c r="M603" s="2" t="s">
+      <c r="M603" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N603" s="2" t="s">
@@ -38359,7 +38365,7 @@
       </c>
       <c r="K606" s="2"/>
       <c r="L606" s="4"/>
-      <c r="M606" s="2" t="s">
+      <c r="M606" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N606" s="2" t="s">
@@ -38505,7 +38511,7 @@
       </c>
       <c r="K609" s="2"/>
       <c r="L609" s="4"/>
-      <c r="M609" s="2" t="s">
+      <c r="M609" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N609" s="2" t="s">
@@ -38941,7 +38947,7 @@
       </c>
       <c r="K617" s="2"/>
       <c r="L617" s="4"/>
-      <c r="M617" s="2" t="s">
+      <c r="M617" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N617" s="2" t="s">
@@ -39095,7 +39101,7 @@
       </c>
       <c r="K620" s="2"/>
       <c r="L620" s="4"/>
-      <c r="M620" s="2" t="s">
+      <c r="M620" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N620" s="2" t="s">
@@ -39505,7 +39511,7 @@
         <v>1204</v>
       </c>
       <c r="L628" s="4"/>
-      <c r="M628" s="2" t="s">
+      <c r="M628" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N628" s="2" t="s">
@@ -39653,7 +39659,7 @@
       </c>
       <c r="K631" s="2"/>
       <c r="L631" s="4"/>
-      <c r="M631" s="2" t="s">
+      <c r="M631" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N631" s="2" t="s">
@@ -39817,7 +39823,7 @@
         <v>1205</v>
       </c>
       <c r="L634" s="4"/>
-      <c r="M634" s="2" t="s">
+      <c r="M634" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N634" s="2" t="s">
@@ -39973,7 +39979,7 @@
       </c>
       <c r="K637" s="2"/>
       <c r="L637" s="4"/>
-      <c r="M637" s="2" t="s">
+      <c r="M637" s="3" t="s">
         <v>145</v>
       </c>
       <c r="N637" s="2" t="s">
@@ -40825,7 +40831,7 @@
       </c>
       <c r="K653" s="2"/>
       <c r="L653" s="4"/>
-      <c r="M653" s="2" t="s">
+      <c r="M653" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N653" s="2" t="s">
@@ -40985,7 +40991,7 @@
         <v>1207</v>
       </c>
       <c r="L656" s="4"/>
-      <c r="M656" s="2" t="s">
+      <c r="M656" s="3" t="s">
         <v>147</v>
       </c>
       <c r="N656" s="2" t="s">
@@ -41199,7 +41205,7 @@
       </c>
       <c r="K660" s="2"/>
       <c r="L660" s="4"/>
-      <c r="M660" s="2" t="s">
+      <c r="M660" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N660" s="2" t="s">
@@ -41357,7 +41363,7 @@
       </c>
       <c r="K663" s="2"/>
       <c r="L663" s="4"/>
-      <c r="M663" s="2" t="s">
+      <c r="M663" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N663" s="2" t="s">
@@ -41571,7 +41577,7 @@
         <v>1208</v>
       </c>
       <c r="L667" s="4"/>
-      <c r="M667" s="2" t="s">
+      <c r="M667" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N667" s="2" t="s">
@@ -41875,7 +41881,7 @@
         <v>1209</v>
       </c>
       <c r="L673" s="4"/>
-      <c r="M673" s="2" t="s">
+      <c r="M673" s="3" t="s">
         <v>151</v>
       </c>
       <c r="N673" s="2" t="s">
@@ -42025,7 +42031,7 @@
         <v>1210</v>
       </c>
       <c r="L676" s="4"/>
-      <c r="M676" s="2" t="s">
+      <c r="M676" s="3" t="s">
         <v>152</v>
       </c>
       <c r="N676" s="2" t="s">
@@ -42243,7 +42249,7 @@
       </c>
       <c r="K680" s="2"/>
       <c r="L680" s="4"/>
-      <c r="M680" s="2" t="s">
+      <c r="M680" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N680" s="2" t="s">
@@ -42407,7 +42413,7 @@
         <v>1212</v>
       </c>
       <c r="L683" s="4"/>
-      <c r="M683" s="2" t="s">
+      <c r="M683" s="3" t="s">
         <v>153</v>
       </c>
       <c r="N683" s="2" t="s">
@@ -42567,7 +42573,7 @@
       </c>
       <c r="K686" s="2"/>
       <c r="L686" s="4"/>
-      <c r="M686" s="2" t="s">
+      <c r="M686" s="3" t="s">
         <v>154</v>
       </c>
       <c r="N686" s="2" t="s">
@@ -42785,7 +42791,7 @@
         <v>1214</v>
       </c>
       <c r="L690" s="4"/>
-      <c r="M690" s="2" t="s">
+      <c r="M690" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N690" s="2" t="s">
@@ -43197,7 +43203,7 @@
         <v>1215</v>
       </c>
       <c r="L698" s="4"/>
-      <c r="M698" s="2" t="s">
+      <c r="M698" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N698" s="2" t="s">
@@ -43397,7 +43403,7 @@
         <v>1184</v>
       </c>
       <c r="L702" s="4"/>
-      <c r="M702" s="2" t="s">
+      <c r="M702" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N702" s="2" t="s">
@@ -43597,7 +43603,7 @@
         <v>1216</v>
       </c>
       <c r="L706" s="4"/>
-      <c r="M706" s="2" t="s">
+      <c r="M706" s="3" t="s">
         <v>155</v>
       </c>
       <c r="N706" s="2" t="s">
@@ -43955,7 +43961,7 @@
         <v>1217</v>
       </c>
       <c r="L713" s="4"/>
-      <c r="M713" s="2" t="s">
+      <c r="M713" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N713" s="2" t="s">
@@ -44155,7 +44161,7 @@
         <v>1218</v>
       </c>
       <c r="L717" s="4"/>
-      <c r="M717" s="2" t="s">
+      <c r="M717" s="3" t="s">
         <v>157</v>
       </c>
       <c r="N717" s="2" t="s">
@@ -44303,7 +44309,7 @@
       </c>
       <c r="K720" s="2"/>
       <c r="L720" s="4"/>
-      <c r="M720" s="2" t="s">
+      <c r="M720" s="3" t="s">
         <v>152</v>
       </c>
       <c r="N720" s="2" t="s">
@@ -44457,7 +44463,7 @@
       </c>
       <c r="K723" s="2"/>
       <c r="L723" s="4"/>
-      <c r="M723" s="2" t="s">
+      <c r="M723" s="3" t="s">
         <v>158</v>
       </c>
       <c r="N723" s="2" t="s">
@@ -44605,7 +44611,7 @@
         <v>1219</v>
       </c>
       <c r="L726" s="4"/>
-      <c r="M726" s="2" t="s">
+      <c r="M726" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N726" s="2" t="s">
@@ -44765,7 +44771,7 @@
       </c>
       <c r="K729" s="2"/>
       <c r="L729" s="4"/>
-      <c r="M729" s="2" t="s">
+      <c r="M729" s="3" t="s">
         <v>159</v>
       </c>
       <c r="N729" s="2" t="s">
@@ -45087,7 +45093,7 @@
         <v>1221</v>
       </c>
       <c r="L735" s="4"/>
-      <c r="M735" s="2" t="s">
+      <c r="M735" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N735" s="2" t="s">
@@ -45235,7 +45241,7 @@
       </c>
       <c r="K738" s="2"/>
       <c r="L738" s="4"/>
-      <c r="M738" s="2" t="s">
+      <c r="M738" s="3" t="s">
         <v>152</v>
       </c>
       <c r="N738" s="2" t="s">
@@ -45389,7 +45395,7 @@
       </c>
       <c r="K741" s="2"/>
       <c r="L741" s="4"/>
-      <c r="M741" s="2" t="s">
+      <c r="M741" s="3" t="s">
         <v>161</v>
       </c>
       <c r="N741" s="2" t="s">
@@ -45535,7 +45541,7 @@
       </c>
       <c r="K744" s="2"/>
       <c r="L744" s="4"/>
-      <c r="M744" s="2" t="s">
+      <c r="M744" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N744" s="2" t="s">
@@ -45693,7 +45699,7 @@
       </c>
       <c r="K747" s="2"/>
       <c r="L747" s="4"/>
-      <c r="M747" s="2" t="s">
+      <c r="M747" s="3" t="s">
         <v>162</v>
       </c>
       <c r="N747" s="2" t="s">
@@ -46065,7 +46071,7 @@
         <v>1218</v>
       </c>
       <c r="L754" s="4"/>
-      <c r="M754" s="2" t="s">
+      <c r="M754" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N754" s="2" t="s">
@@ -46213,7 +46219,7 @@
       </c>
       <c r="K757" s="2"/>
       <c r="L757" s="4"/>
-      <c r="M757" s="2" t="s">
+      <c r="M757" s="3" t="s">
         <v>152</v>
       </c>
       <c r="N757" s="2" t="s">
@@ -46367,7 +46373,7 @@
       </c>
       <c r="K760" s="2"/>
       <c r="L760" s="4"/>
-      <c r="M760" s="2" t="s">
+      <c r="M760" s="3" t="s">
         <v>164</v>
       </c>
       <c r="N760" s="2" t="s">
@@ -46513,7 +46519,7 @@
       </c>
       <c r="K763" s="2"/>
       <c r="L763" s="4"/>
-      <c r="M763" s="2" t="s">
+      <c r="M763" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N763" s="2" t="s">
@@ -46671,7 +46677,7 @@
       </c>
       <c r="K766" s="2"/>
       <c r="L766" s="4"/>
-      <c r="M766" s="2" t="s">
+      <c r="M766" s="3" t="s">
         <v>165</v>
       </c>
       <c r="N766" s="2" t="s">
@@ -46827,7 +46833,7 @@
         <v>1218</v>
       </c>
       <c r="L769" s="4"/>
-      <c r="M769" s="2" t="s">
+      <c r="M769" s="3" t="s">
         <v>166</v>
       </c>
       <c r="N769" s="2" t="s">
@@ -47117,7 +47123,7 @@
       </c>
       <c r="K775" s="2"/>
       <c r="L775" s="4"/>
-      <c r="M775" s="2" t="s">
+      <c r="M775" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N775" s="2" t="s">
@@ -47277,7 +47283,7 @@
         <v>1223</v>
       </c>
       <c r="L778" s="4"/>
-      <c r="M778" s="2" t="s">
+      <c r="M778" s="3" t="s">
         <v>167</v>
       </c>
       <c r="N778" s="2" t="s">
@@ -47425,7 +47431,7 @@
       </c>
       <c r="K781" s="2"/>
       <c r="L781" s="4"/>
-      <c r="M781" s="2" t="s">
+      <c r="M781" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N781" s="2" t="s">
@@ -47583,7 +47589,7 @@
       </c>
       <c r="K784" s="2"/>
       <c r="L784" s="4"/>
-      <c r="M784" s="2" t="s">
+      <c r="M784" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N784" s="2" t="s">
@@ -47741,7 +47747,7 @@
       </c>
       <c r="K787" s="2"/>
       <c r="L787" s="4"/>
-      <c r="M787" s="2" t="s">
+      <c r="M787" s="3" t="s">
         <v>168</v>
       </c>
       <c r="N787" s="2" t="s">
@@ -47887,7 +47893,7 @@
       </c>
       <c r="K790" s="2"/>
       <c r="L790" s="4"/>
-      <c r="M790" s="2" t="s">
+      <c r="M790" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N790" s="2" t="s">
@@ -48047,7 +48053,7 @@
         <v>1224</v>
       </c>
       <c r="L793" s="4"/>
-      <c r="M793" s="2" t="s">
+      <c r="M793" s="3" t="s">
         <v>169</v>
       </c>
       <c r="N793" s="2" t="s">
@@ -48195,7 +48201,7 @@
       </c>
       <c r="K796" s="2"/>
       <c r="L796" s="4"/>
-      <c r="M796" s="2" t="s">
+      <c r="M796" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N796" s="2" t="s">
@@ -48353,7 +48359,7 @@
       </c>
       <c r="K799" s="2"/>
       <c r="L799" s="4"/>
-      <c r="M799" s="2" t="s">
+      <c r="M799" s="3" t="s">
         <v>170</v>
       </c>
       <c r="N799" s="2" t="s">
@@ -48713,7 +48719,7 @@
         <v>1226</v>
       </c>
       <c r="L806" s="4"/>
-      <c r="M806" s="2" t="s">
+      <c r="M806" s="3" t="s">
         <v>171</v>
       </c>
       <c r="N806" s="2" t="s">
@@ -48861,7 +48867,7 @@
       </c>
       <c r="K809" s="2"/>
       <c r="L809" s="4"/>
-      <c r="M809" s="2" t="s">
+      <c r="M809" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N809" s="2" t="s">
@@ -49019,7 +49025,7 @@
       </c>
       <c r="K812" s="2"/>
       <c r="L812" s="4"/>
-      <c r="M812" s="2" t="s">
+      <c r="M812" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N812" s="2" t="s">
@@ -49261,7 +49267,7 @@
       </c>
       <c r="K817" s="2"/>
       <c r="L817" s="4"/>
-      <c r="M817" s="2" t="s">
+      <c r="M817" s="3" t="s">
         <v>170</v>
       </c>
       <c r="N817" s="2" t="s">
@@ -49615,7 +49621,7 @@
       </c>
       <c r="K824" s="2"/>
       <c r="L824" s="4"/>
-      <c r="M824" s="2" t="s">
+      <c r="M824" s="3" t="s">
         <v>173</v>
       </c>
       <c r="N824" s="2" t="s">
@@ -50035,7 +50041,7 @@
       </c>
       <c r="K832" s="2"/>
       <c r="L832" s="4"/>
-      <c r="M832" s="2" t="s">
+      <c r="M832" s="3" t="s">
         <v>174</v>
       </c>
       <c r="N832" s="2" t="s">
@@ -50177,7 +50183,7 @@
       </c>
       <c r="K835" s="2"/>
       <c r="L835" s="4"/>
-      <c r="M835" s="2" t="s">
+      <c r="M835" s="3" t="s">
         <v>175</v>
       </c>
       <c r="N835" s="2" t="s">
@@ -50491,7 +50497,7 @@
         <v>1228</v>
       </c>
       <c r="L841" s="4"/>
-      <c r="M841" s="2" t="s">
+      <c r="M841" s="3" t="s">
         <v>176</v>
       </c>
       <c r="N841" s="2" t="s">
@@ -51027,7 +51033,7 @@
         <v>1229</v>
       </c>
       <c r="L851" s="4"/>
-      <c r="M851" s="2" t="s">
+      <c r="M851" s="3" t="s">
         <v>177</v>
       </c>
       <c r="N851" s="2" t="s">
@@ -51341,7 +51347,7 @@
       </c>
       <c r="K857" s="2"/>
       <c r="L857" s="4"/>
-      <c r="M857" s="2" t="s">
+      <c r="M857" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N857" s="2" t="s">
@@ -51501,7 +51507,7 @@
         <v>1230</v>
       </c>
       <c r="L860" s="4"/>
-      <c r="M860" s="2" t="s">
+      <c r="M860" s="3" t="s">
         <v>178</v>
       </c>
       <c r="N860" s="2" t="s">
@@ -52035,7 +52041,7 @@
       </c>
       <c r="K870" s="2"/>
       <c r="L870" s="4"/>
-      <c r="M870" s="2" t="s">
+      <c r="M870" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N870" s="2" t="s">
@@ -52193,7 +52199,7 @@
       </c>
       <c r="K873" s="2"/>
       <c r="L873" s="4"/>
-      <c r="M873" s="2" t="s">
+      <c r="M873" s="3" t="s">
         <v>179</v>
       </c>
       <c r="N873" s="2" t="s">
@@ -52611,7 +52617,7 @@
         <v>1233</v>
       </c>
       <c r="L881" s="4"/>
-      <c r="M881" s="2" t="s">
+      <c r="M881" s="3" t="s">
         <v>180</v>
       </c>
       <c r="N881" s="2" t="s">
@@ -53147,7 +53153,7 @@
       </c>
       <c r="K891" s="2"/>
       <c r="L891" s="4"/>
-      <c r="M891" s="2" t="s">
+      <c r="M891" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N891" s="2" t="s">
@@ -53307,7 +53313,7 @@
       </c>
       <c r="K894" s="2"/>
       <c r="L894" s="4"/>
-      <c r="M894" s="2" t="s">
+      <c r="M894" s="3" t="s">
         <v>181</v>
       </c>
       <c r="N894" s="2"/>
